--- a/2022/04/24/salarisverhoging-leraren-basisschool/Gelijktrekken Salarissen Onderwijs.xlsx
+++ b/2022/04/24/salarisverhoging-leraren-basisschool/Gelijktrekken Salarissen Onderwijs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rolf/GitHub/rolfje.com-src/src/content/posts/2022/04/24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E0FFD7-C2E9-AD42-BFA8-7AACF3E79591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F554EA-9784-7A46-910D-5EBBBB0186FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="500" windowWidth="16880" windowHeight="16380" xr2:uid="{869F2680-302E-B44E-96B8-B0C81C46AD19}"/>
   </bookViews>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C648931-9FC9-D742-9E71-44E57143CEAA}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
